--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,11 +16,18 @@
     <sheet name="AppConfigAdvancedSearchTest" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AppConfigEditTest" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="SepAppConfigAdvancedSearchTest" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="SepAppConfigEditTest" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="sepAppConfigEditTest" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="SepCreateLangSubCategoryTest" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="SepLangAdvancedSearchTest" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="SepLangEditTest" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="SepCreateTestRequestTest" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="SepDefineSectionTest" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="SepSubmitQuestionTest" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="SepApproveQuestionTest" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="SepEvaluationResultsTest" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="SepAssignTest" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="SepViewAssignedCandidatesResultsTest" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Sheet20" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -40,9 +47,15 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">narendramodi</t>
+  </si>
+  <si>
     <t xml:space="preserve">parimalas</t>
   </si>
   <si>
+    <t xml:space="preserve">int123456</t>
+  </si>
+  <si>
     <t xml:space="preserve">int123$%^</t>
   </si>
   <si>
@@ -82,7 +95,7 @@
     <t xml:space="preserve">configValue</t>
   </si>
   <si>
-    <t xml:space="preserve">integramicro</t>
+    <t xml:space="preserve">integramicro </t>
   </si>
   <si>
     <t xml:space="preserve">SMTP User</t>
@@ -127,7 +140,7 @@
     <t xml:space="preserve">2019A</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Requirement </t>
+    <t xml:space="preserve">Internal Requirement</t>
   </si>
   <si>
     <t xml:space="preserve">Shilpa N S</t>
@@ -137,17 +150,251 @@
   </si>
   <si>
     <t xml:space="preserve">24-12-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sectionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">langType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">langSubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxQuestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutOffPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Select MCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apptitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Apptitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codeTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleOutput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">className</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mathodName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameterCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameterDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returnDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linestoLock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Aptitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how old are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi Select MCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is ur name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyothi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geetha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangeetha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write simple java program to add 2 numbers using method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public class Addition  
+{    
+   public static void main(String args[]) 
+     {       
+        Add(2,4);
+     }  
+   public int add(int a, int b)   
+     { 
+         int c=a+b;
+         Return;
+      }  
+} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to improve question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluationId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAAA1234A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhdg shdg sjdgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\shilpans\Pictures\BUGS_Staging.imss.work\bugs_list.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="#"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,7 +418,41 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF6A3E3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -219,7 +500,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,11 +509,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,7 +587,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -313,10 +622,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,11 +642,29 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -359,7 +686,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,93 +696,99 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -475,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,42 +819,576 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2589631478</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="xxx@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +1410,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,28 +1422,54 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -594,7 +1487,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -605,61 +1498,61 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -681,44 +1574,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,15 +1603,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,7 +1620,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -784,6 +1640,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -792,7 +1685,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,49 +1695,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
